--- a/repswitch_practice_version1.xlsx
+++ b/repswitch_practice_version1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88D85D7-1849-47A3-85A8-5D8E82D6C1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7118C569-10DD-4735-8792-07E0D1C6989B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="600" windowWidth="10596" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
@@ -884,7 +884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6FA7BD-C88A-4DA5-A725-535459E287DD}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
